--- a/outputs/BBVA ABR-MAY造假3-MSN20250609098/BBVA ABR-MAY造假3-MSN20250609098_audit_report.xlsx
+++ b/outputs/BBVA ABR-MAY造假3-MSN20250609098/BBVA ABR-MAY造假3-MSN20250609098_audit_report.xlsx
@@ -497,7 +497,7 @@
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>生成时间: 2026-01-31 21:30:33</t>
+          <t>生成时间: 2026-02-01 10:41:49</t>
         </is>
       </c>
     </row>
@@ -691,47 +691,51 @@
         <is>
           <t>规则ID: MSTAR_BBVA_DTL_CNT_ABONOS
 规则名称: 明细交易笔数校验_入账笔数
-执行步骤：
+执行步骤（严格按照判断逻辑）：
 (Step 1) 从 'Comportamiento' 表格中提取 'Depósitos / Abonos (+)'（入账）对应的总笔数（Total Movimientos Abonos）。
-执行结果：在提供的 'Comportamiento' 和 'total_movimientos' 数据中，'total_movimientos_abonos' 明确为 16。因此，数值1 = 16。
-(Step 2) 遍历 'Detalle de Movimientos Realizados' 部分的所有交易行。
+执行结果：在提供的“Comportamiento”部分，明确记录“Depósitos / Abonos (+): 16  22,886.01”。因此，数值1（来自Comportamiento的入账总笔数）为 16。
+(Step 2) 遍历 'Detalle de Movimientos Realizados'或raw_transaction_data（交易明细）部分的所有交易行。
 执行结果：明细部分共列出 47 笔交易。
 (Step 3) [关键过滤] 仅统计 'Abonos' 列有有效数值（非空且不为0）的行。如果某行只有 'Cargo' 列有值，必须忽略。
-执行结果：根据规则，逐行检查明细数据中的 'Abono' 字段。'Abono' 字段为 '无' 或空白的行被忽略。'Abono' 字段有数值（包括0.01）的行被计入。
+执行结果：遍历明细，筛选出所有“ABONOS”字段不为“无”且数值大于0的交易。根据系统提供的参考值“其中包含有效 Abonos (入账) 的交易数: 21”，确认过滤后的交易笔数为 21。为便于人工复核，列出所有符合条件的21笔交易明细（按原始顺序）：
+1. ABONOS:1000.0
+2. ABONOS:385.0
+3. ABONOS:174.0
+4. ABONOS:2.0
+5. ABONOS:500.0
+6. ABONOS:300.0
+7. ABONOS:130.0
+8. ABONOS:50.0
+9. ABONOS:16000.0
+10. ABONOS:591.0
+11. ABONOS:250.0
+12. ABONOS:140.0
+13. ABONOS:500.0
+14. ABONOS:770.0
+15. ABONOS:300.0
+16. ABONOS:325.0
+17. ABONOS:400.0
+18. ABONOS:0.01
+19. ABONOS:600.0
+20. ABONOS:1500.0
+21. ABONOS:500.0
 (Step 4) 计算符合条件的交易总行数。
-执行结果：符合条件的交易明细如下（按原始顺序列出，共21笔）：
-1. Abono: 1000.0
-2. Abono: 385.0
-3. Abono: 174.0
-4. Abono: 2.0
-5. Abono: 500.0
-6. Abono: 300.0
-7. Abono: 130.0
-8. Abono: 50.0
-9. Abono: 16000.0
-10. Abono: 591.0
-11. Abono: 250.0
-12. Abono: 140.0
-13. Abono: 500.0
-14. Abono: 770.0
-15. Abono: 300.0
-16. Abono: 325.0
-17. Abono: 400.0
-18. Abono: 0.01
-19. Abono: 600.0
-20. Abono: 1500.0
-21. Abono: 500.0
-统计符合条件的交易总行数 = 21。因此，数值2 = 21。
-校验规则：比较数值1和数值2是否相等。
-执行结果：数值1 (来自Comportamiento) = 16，数值2 (来自明细统计) = 21。两者不相等。
-决策结果：如果不相等，输出不一致（异常）。
-结论：明细数据中统计的有效 Abonos 交易笔数（21笔）与 Comportamiento 中记录的 Abonos 总笔数（16笔）不一致。
-hit值判定：根据规则，'不一致' = 数据不匹配 = 违规 = hit=true。</t>
+执行结果：经统计，符合条件的交易总行数为 21。因此，数值2（来自明细的入账交易笔数）为 21。
+校验规则（严格按照校验规则）：
+比较数值1（16）和数值2（21）是否相等。
+比较结果：
+数值1 (Comportamiento 入账笔数) = 16
+数值2 (明细有效 Abonos 交易笔数) = 21
+两者不相等。
+决策结果（严格按照决策结果）：
+由于两个数值不相等，输出“不一致（异常）”。
+最终判定：
+根据规则定义，当两个数值不相等时，hit=true。</t>
         </is>
       </c>
       <c r="F20" s="5" t="inlineStr">
         <is>
-          <t>数据中已提供参考值'其中包含有效 Abonos (入账) 的交易数: 21'，与手动统计结果一致，确认了统计的准确性。</t>
+          <t>系统提供的参考值“其中包含有效 Abonos (入账) 的交易数: 21”与手动筛选结果一致，确保了统计的准确性。Comportamiento 中记录的笔数（16）与明细实际笔数（21）存在明显差异，判定为违规。</t>
         </is>
       </c>
     </row>
@@ -758,73 +762,63 @@
       </c>
       <c r="E21" s="5" t="inlineStr">
         <is>
-          <t>【执行步骤说明】
-1. (Step 1) 从 'Comportamiento' 表格中提取 'Retiros / Cargos (-)' 对应的总笔数。数据中显示为：'Retiros / Cargos (-): 31  12,874.14'，因此数值1（来自Comportamiento的总笔数）为 31。
-2. (Step 2) 遍历 'Detalle de Movimientos Realizados' 部分的所有交易行。明细数据共列出 47 笔交易。
-3. (Step 3) 关键过滤：仅统计 'Cargos' 列有有效数值（非空且不为0）的行。根据规则，'Cargos' 列显示为“无”或空白的行必须忽略。
-4. (Step 4) 计算符合条件的交易总行数。
-【明细统计与计算过程】
-根据过滤条件，逐笔检查明细数据中的 'Cargos' 列：
-1. Cargo:无 -&gt; 忽略
-2. Cargo:111.0 -&gt; 计入
-3. Cargo:66.0 -&gt; 计入
-4. Cargo:50.0 -&gt; 计入
-5. Cargo:50.0 -&gt; 计入
-6. Cargo:无 -&gt; 忽略
-7. Cargo:无 -&gt; 忽略
-8. Cargo:无 -&gt; 忽略
-9. Cargo:194.0 -&gt; 计入
-10. Cargo:218.0 -&gt; 计入
-11. Cargo:107.0 -&gt; 计入
-12. Cargo:40.0 -&gt; 计入
-13. Cargo:无 -&gt; 忽略
-14. Cargo:无 -&gt; 忽略
-15. Cargo:561.03 -&gt; 计入
-16. Cargo:191.0 -&gt; 计入
-17. Cargo:526.13 -&gt; 计入
-18. Cargo:87.0 -&gt; 计入
-19. Cargo:1580.78 -&gt; 计入
-20. Cargo:无 -&gt; 忽略
-21. Cargo:无 -&gt; 忽略
-22. Cargo:无 -&gt; 忽略
-23. Cargo:无 -&gt; 忽略
-24. Cargo:无 -&gt; 忽略
-25. Cargo:无 -&gt; 忽略
-26. Cargo:无 -&gt; 忽略
-27. Cargo:无 -&gt; 忽略
-28. Cargo:2100.0 -&gt; 计入
-29. Cargo:300.0 -&gt; 计入
-30. Cargo:333.0 -&gt; 计入
-31. Cargo:1294.2 -&gt; 计入
-32. Cargo:72.0 -&gt; 计入
-33. Cargo:89.0 -&gt; 计入
-34. Cargo:无 -&gt; 忽略
-35. Cargo:305.0 -&gt; 计入
-36. Cargo:无 -&gt; 忽略
-37. Cargo:无 -&gt; 忽略
-38. Cargo:463.0 -&gt; 计入
-39. Cargo:212.0 -&gt; 计入
-40. Cargo:无 -&gt; 忽略
-41. Cargo:无 -&gt; 忽略
-42. Cargo:600.0 -&gt; 计入
-43. Cargo:无 -&gt; 忽略
-44. Cargo:无 -&gt; 忽略
-45. Cargo:500.0 -&gt; 计入
-46. Cargo:323.0 -&gt; 计入
-47. Cargo:970.0 -&gt; 计入
-统计结果：符合条件的出账交易（Cargos）共计 26 笔。这与数据中提供的参考值“其中包含有效 Cargos (出账) 的交易数: 26”一致。因此，数值2（来自明细统计的总笔数）为 26。
-【校验规则执行与比较】
-校验规则：比较数值1（31）与数值2（26）是否相等。
-比较结果：31 ≠ 26，两者不相等。
-【决策结果】
-根据决策结果：如果不相等，输出不一致（异常）。
-【最终判定】
-数值不一致，存在异常。因此，hit=true。</t>
+          <t>规则ID: MSTAR_BBVA_DTL_CNT_CARGOS
+规则名称: 明细交易笔数校验_出账笔数
+执行步骤（严格按照判断逻辑）：
+(Step 1) 从 'Comportamiento' 表格中提取 'Retiros / Cargos (-)'（出账）对应的总笔数（Total Movimientos Cargos）。
+- 数据来源：在提供的“Comportamiento”和“total_movimientos”部分，明确列出“total_movimientos_cargos: 31”。
+- 提取结果：数值1（来自Comportamiento/汇总）= 31 笔。
+(Step 2) 遍历 'Detalle de Movimientos Realizados'（交易明细）部分的所有交易行。
+- 数据来源：已提供结构化明细，总笔数为47。
+(Step 3) [关键过滤] 仅统计 'Cargos' 列有有效数值（非空且不为0）的行。如果某行只有 'Abono' 列有值，必须忽略。
+- 执行过滤：逐行检查明细中“CARGOS”字段。
+- 过滤标准：CARGOS值为“无”或空白的行被排除。CARGOS值为具体数字（如111.0, 66.0）的行被计入。
+- 系统预计算参考值：数据中已提供“其中包含有效 Cargos (出账) 的交易数: 26”。
+(Step 4) 计算符合条件的交易总行数。
+- 根据Step 3的过滤结果，统计有效Cargos交易笔数。
+- 统计结果：数值2（来自明细统计）= 26 笔。
+- 明细列表（共26笔，按原始顺序列出）：
+  1. 行2: CARGOS:111.0
+  2. 行3: CARGOS:66.0
+  3. 行4: CARGOS:50.0
+  4. 行5: CARGOS:50.0
+  5. 行9: CARGOS:194.0
+  6. 行10: CARGOS:218.0
+  7. 行11: CARGOS:107.0
+  8. 行12: CARGOS:40.0
+  9. 行15: CARGOS:561.03
+  10. 行16: CARGOS:191.0
+  11. 行17: CARGOS:526.13
+  12. 行18: CARGOS:87.0
+  13. 行19: CARGOS:1580.78
+  14. 行28: CARGOS:2100.0
+  15. 行29: CARGOS:300.0
+  16. 行30: CARGOS:333.0
+  17. 行31: CARGOS:1294.2
+  18. 行32: CARGOS:72.0
+  19. 行33: CARGOS:89.0
+  20. 行35: CARGOS:305.0
+  21. 行38: CARGOS:463.0
+  22. 行39: CARGOS:212.0
+  23. 行42: CARGOS:600.0
+  24. 行45: CARGOS:500.0
+  25. 行46: CARGOS:323.0
+  26. 行47: CARGOS:970.0
+校验规则（严格按照校验规则）：
+比较数值1（31）和数值2（26）是否相等。
+比较结果：
+- 数值1（汇总笔数） = 31
+- 数值2（明细笔数） = 26
+- 两者不相等。
+决策结果（严格按照决策结果）：
+因为两个数值不相等，所以输出“不一致”（异常）。
+最终判定：
+根据规则定义，hit=true 表示数据不匹配（违规）。</t>
         </is>
       </c>
       <c r="F21" s="5" t="inlineStr">
         <is>
-          <t>数据中提供的参考值 '其中包含有效 Cargos (出账) 的交易数: 26' 与手动统计结果一致，确认了数值2的准确性。数值1来自 Comportamiento 表格，清晰无误。两者明显不相等，判定为违规。</t>
+          <t>系统提供的预计算参考值（有效Cargos交易数: 26）与手动统计结果一致，确保了统计准确性。汇总数据（31笔）与明细数据（26笔）存在显著差异，表明出账交易笔数不一致，触发规则命中。</t>
         </is>
       </c>
     </row>
@@ -853,47 +847,54 @@
         <is>
           <t>规则ID: MSTAR_BBVA_DTL_AMT_ABONOS
 规则名称: 明细交易金额校验_入账金额
-执行步骤：
+执行步骤（严格按照判断逻辑）：
 (Step 1) 从 'Comportamiento' 表格中提取 'Depósitos / Abonos (+)'（入账）对应的总金额。
-执行结果：从数据中提取到 'Comportamiento' 部分显示：'Depósitos / Abonos (+): 16  22,886.01'。因此，数值1（来自Comportamiento的入账总金额）为 22,886.01。
+执行结果：从数据中提取到 'Comportamiento' 部分明确列出：'Depósitos / Abonos (+): 16  22,886.01'。因此，数值1 = 22886.01。
 (Step 2) 遍历 'Detalle de Movimientos Realizados' 或raw_transaction_data部分。
-执行结果：已遍历提供的47笔交易明细。
+执行结果：已遍历提供的47条结构化明细。
 (Step 3) [关键过滤] 累加所有 'Abonos' 列的数值。忽略 'Cargo' 列的数值。
-执行结果：根据规则要求，仅累加 'Abonos' 列不为空的交易金额。根据数据提示，有效 Abonos 交易数为 21 笔。以下是所有 Abonos 不为空的交易明细（按原始顺序列出）：
-1. Abono: 1000.0
-2. Abono: 385.0
-3. Abono: 174.0
-4. Abono: 2.0
-5. Abono: 500.0
-6. Abono: 300.0
-7. Abono: 130.0
-8. Abono: 50.0
-9. Abono: 16000.0
-10. Abono: 591.0
-11. Abono: 250.0
-12. Abono: 140.0
-13. Abono: 500.0
-14. Abono: 770.0
-15. Abono: 300.0
-16. Abono: 325.0
-17. Abono: 400.0
-18. Abono: 0.01
-19. Abono: 600.0
-20. Abono: 1500.0
-21. Abono: 500.0
+执行结果：根据数据提示，明细中包含有效 Abonos 的交易数为 21 笔。现累加所有 'ABONOS' 字段不为'无'的数值。
+明细列表（按原始顺序，共21笔）：
+1. ABONOS:1000.0
+2. ABONOS:385.0
+3. ABONOS:174.0
+4. ABONOS:2.0
+5. ABONOS:500.0
+6. ABONOS:300.0
+7. ABONOS:130.0
+8. ABONOS:50.0
+9. ABONOS:16000.0
+10. ABONOS:591.0
+11. ABONOS:250.0
+12. ABONOS:140.0
+13. ABONOS:500.0
+14. ABONOS:770.0
+15. ABONOS:300.0
+16. ABONOS:325.0
+17. ABONOS:400.0
+18. ABONOS:0.01
+19. ABONOS:600.0
+20. ABONOS:1500.0
+21. ABONOS:500.0
 (Step 4) 确保金额格式转换正确（处理千分位逗号）。
-执行结果：明细中的金额均为数字格式，无需转换。对上述21笔金额进行求和：
-1000.0 + 385.0 + 174.0 + 2.0 + 500.0 + 300.0 + 130.0 + 50.0 + 16000.0 + 591.0 + 250.0 + 140.0 + 500.0 + 770.0 + 300.0 + 325.0 + 400.0 + 0.01 + 600.0 + 1500.0 + 500.0 = 22,817.01。
-因此，数值2（来自明细的Abonos累加和）为 22,817.01。
-校验规则：比较数值1和数值2是否相等。
-比较结果：数值1 (22,886.01) 不等于 数值2 (22,817.01)。两者相差 69.00。
-决策结果：根据规则，如果两个数值不相等，则输出“不一致”（异常）。
-最终判定：由于数值不相等，判定为不一致（异常）。根据规则，hit=true。</t>
+执行结果：明细中金额均为数字格式，无需处理千分位逗号。
+求和计算：
+1000.0 + 385.0 + 174.0 + 2.0 + 500.0 + 300.0 + 130.0 + 50.0 + 16000.0 + 591.0 + 250.0 + 140.0 + 500.0 + 770.0 + 300.0 + 325.0 + 400.0 + 0.01 + 600.0 + 1500.0 + 500.0 = 22817.01
+因此，数值2（明细累加总额）= 22817.01。
+校验规则（必须严格执行）：比较1和2是否相等。
+比较结果：
+数值1 (Comportamiento总额) = 22886.01
+数值2 (明细累加总额) = 22817.01
+两者不相等。差额 = 22886.01 - 22817.01 = 69.00。
+决策结果（必须严格执行）：如果不相等，输出不一致（异常）。
+最终判定：根据校验规则，两个数值不相等，因此输出“不一致”。根据hit值判断逻辑，“不一致”对应 hit=true。</t>
         </is>
       </c>
       <c r="F22" s="5" t="inlineStr">
         <is>
-          <t>数据中提供的参考值 '有效 Abonos 交易数: 21' 与手动统计的明细笔数一致。'Comportamiento' 中的入账总金额 (22,886.01) 与明细累加和 (22,817.01) 存在差异，导致规则命中。</t>
+          <t>1. 明细中Abonos交易笔数为21笔，与'Comportamiento'中记录的16笔不符，但本规则仅校验总金额，不校验笔数。
+2. 系统提供的'total_movimientos'部分显示'total_importe_abonos: 11718.78'，此数值与本次校验的两个数值均不同，可能代表另一种统计口径（例如有效交易数16笔的总额），但本规则严格依据'Comportamiento'中的'Depósitos / Abonos (+)'金额进行比对。
+3. 余额连续性检查发现多处失败，但根据'关键原则'，本规则仅关注金额是否一致，不因其他异常改变判定。</t>
         </is>
       </c>
     </row>
@@ -922,56 +923,60 @@
         <is>
           <t>规则ID: MSTAR_BBVA_DTL_AMT_CARGOS
 规则名称: 明细交易金额校验_出账金额
-执行步骤：
+执行步骤（严格按照判断逻辑）：
 (Step 1) 从 'Comportamiento' 表格中提取 'Retiros / Cargos (-)'（出账）对应的总金额。
-执行结果：从数据中提取到 'Comportamiento' 部分的 'Retiros / Cargos (-): 31  12,874.14'。数值1（来自Comportamiento）为 12874.14。
+执行结果：在提供的 'Comportamiento' 部分，找到 'Retiros / Cargos (-): 31  12,874.14'。因此，数值1（来自Comportamiento）为 12,874.14。
 (Step 2) 遍历 'Detalle de Movimientos Realizados' 或raw_transaction_data部分。
 执行结果：已遍历提供的47条明细交易记录。
 (Step 3) [关键过滤] 累加所有 'Cargos' 列的数值。忽略 'Abono' 列的数值。
-执行结果：根据规则要求，仅累加 'Cargos' 列不为空的交易金额。明细数据中 'Cargos' 列不为空的交易共26笔（与数据中提供的参考值'有效 Cargos (出账) 交易数: 26'一致）。以下是所有26笔出账交易的金额明细（按原始顺序列出）：
-1. Cargo: 111.0
-2. Cargo: 66.0
-3. Cargo: 50.0
-4. Cargo: 50.0
-5. Cargo: 194.0
-6. Cargo: 218.0
-7. Cargo: 107.0
-8. Cargo: 40.0
-9. Cargo: 561.03
-10. Cargo: 191.0
-11. Cargo: 526.13
-12. Cargo: 87.0
-13. Cargo: 1580.78
-14. Cargo: 2100.0
-15. Cargo: 300.0
-16. Cargo: 333.0
-17. Cargo: 1294.2
-18. Cargo: 72.0
-19. Cargo: 89.0
-20. Cargo: 305.0
-21. Cargo: 463.0
-22. Cargo: 212.0
-23. Cargo: 600.0
-24. Cargo: 500.0
-25. Cargo: 323.0
-26. Cargo: 970.0
+执行结果：根据明细数据，共有26条交易包含有效的Cargos（出账）金额。根据规则要求，累加所有Cargos列的数值。
 (Step 4) 确保金额格式转换正确（处理千分位逗号）。
-执行结果：明细中的金额均为数字格式，无需处理千分位逗号。对上述26笔金额求和：111.0 + 66.0 + 50.0 + 50.0 + 194.0 + 218.0 + 107.0 + 40.0 + 561.03 + 191.0 + 526.13 + 87.0 + 1580.78 + 2100.0 + 300.0 + 333.0 + 1294.2 + 72.0 + 89.0 + 305.0 + 463.0 + 212.0 + 600.0 + 500.0 + 323.0 + 970.0 = 12874.14。数值2（来自明细累加）为 12874.14。
-校验规则：比较1和2是否相等。
-比较结果：数值1（12874.14）与数值2（12874.14）相等。
-决策结果：如果相等，输出一致（无异常）；如果不相等，输出不一致（异常）。
-根据比较结果，两个数值相等，因此输出“一致”。
-hit值判断逻辑：如果两个数值相等 → 根据决策结果输出“一致” → hit=false（合规/未命中）。
-最终判定：虽然数值相等，但请注意，数据中'Comportamiento'部分显示'Retiros / Cargos (-): 31'，而明细中有效的Cargos交易笔数为26笔，笔数不一致。然而，根据规则要求，本规则仅校验金额，不校验笔数。根据关键原则，严禁“跨规则连坐”，在校验金额规则时，即使发现笔数不一致，只要金额相等，就必须判定为一致。因此，基于当前规则定义的校验逻辑，金额一致，hit=false。
-但经过复核，发现一个关键问题：规则要求比较的是'Comportamiento'中的'Retiros / Cargos (-)'总金额与明细中所有'Cargos'列数值的累加和。在计算明细累加和时，我们严格遵循了规则，只累加了'Cargos'列不为空的交易。然而，数据中'Comportamiento'部分明确写着'Retiros / Cargos (-): 31  12,874.14'，这意味着银行统计的出账交易笔数是31笔，总金额为12,874.14。而我们从明细中累加出的Cargos交易是26笔，总金额也为12,874.14。金额相等，但笔数相差5笔。这强烈暗示明细数据中可能缺失了5笔出账交易的记录，或者存在5笔金额为0的Cargos交易（但规则要求忽略'Abono'，且'Cargos'列显示为'无'）。根据规则要求“列不为空指任意非零、非空数值”，明细中'Cargos'列为'无'的交易已被正确忽略。
-尽管如此，规则的核心校验点是金额。金额相等，则通过校验。因此，根据规则的字面逻辑和决策结果，应判定为“一致”。
-然而，我们必须再次审视规则原文：“比较1和2是否相等”。这里的“1”和“2”分别指Step1提取的总金额和Step3累加的总金额。两者确实相等。
-最终，严格遵守规则指令：金额相等 → 输出一致 → hit=false。</t>
+执行结果：明细中的Cargos金额均为数字格式，无需处理千分位逗号。
+计算过程（数值2 - 明细Cargos总和）：
+根据明细数据，累加所有Cargos金额。
+由于Cargos交易笔数为26笔（少于30笔），按照要求列出所有用于计算的交易金额明细：
+1. 111.0
+2. 66.0
+3. 50.0
+4. 50.0
+5. 194.0
+6. 218.0
+7. 107.0
+8. 40.0
+9. 561.03
+10. 191.0
+11. 526.13
+12. 87.0
+13. 1580.78
+14. 2100.0
+15. 300.0
+16. 333.0
+17. 1294.2
+18. 72.0
+19. 89.0
+20. 305.0
+21. 463.0
+22. 212.0
+23. 600.0
+24. 500.0
+25. 323.0
+26. 970.0
+求和计算：
+111 + 66 + 50 + 50 + 194 + 218 + 107 + 40 + 561.03 + 191 + 526.13 + 87 + 1580.78 + 2100 + 300 + 333 + 1294.2 + 72 + 89 + 305 + 463 + 212 + 600 + 500 + 323 + 970 = 12,874.14
+因此，数值2（来自明细累加）为 12,874.14。
+校验规则（严格按照校验规则）：
+比较数值1（12,874.14）和数值2（12,874.14）是否相等。
+比较结果：两个数值完全相等。
+决策结果（严格按照决策结果）：
+如果相等，输出一致（无异常）。
+最终结论：数值一致，无异常。
+hit值判定理由：
+根据规则定义，hit=false 表示合规/未命中。由于两个数值相等，输出“一致”，因此 hit=false。</t>
         </is>
       </c>
       <c r="F23" s="5" t="inlineStr">
         <is>
-          <t>金额校验通过（12874.14 == 12874.14），但笔数存在显著差异（Comportamiento: 31笔 vs 明细有效Cargos: 26笔）。根据规则要求，本规则仅校验金额，不校验笔数，且严禁跨规则连坐。因此，基于金额一致，判定为hit=false。请注意笔数不一致可能指向数据完整性问题，但这不属于本规则（MSTAR_BBVA_DTL_AMT_CARGOS）的检查范围。；已根据 evidence 结尾的明确结论自动修正 hit 值为 False</t>
+          <t>注意：虽然明细中Cargos交易笔数为26笔，与Comportamiento中记录的31笔不一致，但当前规则MSTAR_BBVA_DTL_AMT_CARGOS仅校验出账总金额，不校验笔数。根据关键原则，严禁‘跨规则连坐’。因此，只要金额相等，就必须判定为一致（hit=false）。笔数不一致的问题应由其他专门校验笔数的规则处理。；已根据 evidence 结尾的明确结论自动修正 hit 值为 False</t>
         </is>
       </c>
     </row>
@@ -1000,39 +1005,62 @@
         <is>
           <t>规则ID: MSTAR_BBVA_DTL_AMT_SINGLE
 规则名称: 明细交易金额校验_单笔金额
-执行步骤：
-1. 保持交易列表的原始顺序。
-2. 确定初始锚点(Balance_1)：第一行交易（索引1）有 'Operacion:2421.23'，将其记为 Balance_1 = 2421.23。计算起点从下一行（索引2）开始。
-3. 寻找下一个锚点(Balance_2)：向下遍历，找到下一个有 'OPERACIÓN' 或 'SALDO OPERACIÓN' 值的行。
-4. 区间核算：累加 Balance_1 (不含) 到 Balance_2 (含) 之间的所有 'CARGOS' 和 'ABONOS'。
-5. 验证公式：result = Balance_1 - Sum(Cargos) + Sum(Abonos) - Balance_2。
-6. 迭代：将 Balance_2 设为新的 Balance_1，重复步骤3-5直到末尾。
-详细轮次核算：
-轮次 1:
-- Balance_1: 2421.23 (来自索引1的Operacion)
-- 区间: 索引2 到 索引10 (索引10有Operacion:2293.23)
-- Sum(Cargos): 111.0 (索引2) + 66.0 (索引3) + 50.0 (索引4) + 50.0 (索引5) + 194.0 (索引9) + 218.0 (索引10) = 689.0
-- Sum(Abonos): 0.0 (区间内无Abonos)
-- Balance_2: 2293.23 (来自索引10的Operacion)
-- result = 2421.23 - 689.0 + 0.0 - 2293.23 = -561.0
-- 结果: result = -561.0 (不为0)
-由于在第一个轮次就发现 result 不为 0，根据校验规则（任意一个轮次中result值不为0，输出不一致），判定为不一致。
-导致异常的具体交易（轮次1区间内所有Cargos）：
-1. 索引2: Cargo:111.0
-2. 索引3: Cargo:66.0
-3. 索引4: Cargo:50.0
-4. 索引5: Cargo:50.0
-5. 索引9: Cargo:194.0
-6. 索引10: Cargo:218.0
-结论：
-- 根据判断逻辑和校验规则，至少存在一个轮次（轮次1）的核算结果 result 不为 0。
-- 决策结果：输出不一致（异常）。
-- 因此，hit = true。</t>
+执行步骤与结果：
+1. 保持交易列表原始顺序：已按提供的47笔交易原始顺序处理。
+2. 确定初始锚点(Balance_1)：第一行交易（索引1）有'OPERACIÓN'值2421.23，将其记为Balance_1。计算起点从下一行（索引2）开始。
+3. 按照判断逻辑，依次寻找下一个有'OPERACIÓN'或'SALDO OPERACIÓN'值的行作为Balance_2，并进行区间核算。
+4. 校验规则：记录每个轮次中公式 result = Balance_1 - Sum(Cargos) + Sum(Abonos) - Balance_2 的计算结果。
+5. 决策结果：如果所有轮次的result都为0，则输出一致；否则输出不一致。
+具体核算轮次（参考系统提供的内部计算）：
+- 轮次1 (行1-&gt;2): result = 2421.23 - 111.00 + 0.00 - 2310.23 = 0.00 -&gt; 通过。
+- 轮次2 (行2-&gt;10): result = 2310.23 - 578.00 + 561.00 - 2293.23 = 0.00 -&gt; 通过。
+- 轮次3 (行10-&gt;11): result = 2293.23 - 107.00 + 0.00 - 2186.23 = 0.00 -&gt; 通过。
+- 轮次4 (行11-&gt;13): result = 2186.23 - 40.00 + 500.00 - 2646.23 = 0.00 -&gt; 通过。
+- 轮次5 (行13-&gt;14): result = 2646.23 - 0.00 + 300.00 - 2946.23 = 0.00 -&gt; 通过。
+- 轮次6 (行14-&gt;17): result = 2946.23 - 1278.16 + 0.00 - 1668.07 = 0.00 -&gt; 通过。
+- 轮次7 (行17-&gt;19): result = 1668.07 - 1667.78 + 0.00 - 0.29 = 0.00 -&gt; 通过。
+- 轮次8 (行19-&gt;21): result = 0.29 - 0.00 + 180.00 - 80.29 = 100.00 -&gt; 失败。
+- 轮次9 (行21-&gt;24): result = 80.29 - 0.00 + 16841.00 - 4072.06 = 12849.23 -&gt; 失败。
+- 轮次10 (行24-&gt;27): result = 4072.06 - 0.00 + 1410.00 - 4202.06 = 1280.00 -&gt; 失败。
+- 轮次11 (行27-&gt;31): result = 4202.06 - 4027.20 + 0.00 - 174.86 = 0.00 -&gt; 通过。
+- 轮次12 (行31-&gt;34): result = 174.86 - 161.00 + 300.00 - 313.86 = 0.00 -&gt; 通过。
+- 轮次13 (行34-&gt;36): result = 313.86 - 305.00 + 325.00 - 333.86 = 0.00 -&gt; 通过。
+- 轮次14 (行36-&gt;38): result = 333.86 - 463.00 + 400.00 - 270.86 = 0.00 -&gt; 通过。
+- 轮次15 (行38-&gt;42): result = 270.86 - 812.00 + 600.01 - 58.87 = 0.00 -&gt; 通过。
+- 轮次16 (行42-&gt;44): result = 58.87 - 0.00 + 2000.00 - 2058.87 = 0.00 -&gt; 通过。
+- 轮次17 (行44-&gt;46): result = 2058.87 - 823.00 + 0.00 - 1235.87 = 0.00 -&gt; 通过。
+- 轮次18 (行46-&gt;47): result = 1235.87 - 970.00 + 0.00 - 265.87 = 0.00 -&gt; 通过。
+结论：在18个核算轮次中，轮次8、9、10的result值不为0（分别为100.00、12849.23、1280.00）。根据决策结果，存在result不为0的轮次，因此输出不一致（异常）。
+关键异常区间明细（导致result不为0的交易）：
+- 轮次8 (行19-&gt;21): 区间内交易为行20、21。
+  - 行20: ABONOS=130.0
+  - 行21: ABONOS=50.0
+  - Sum(Abonos)=180.0
+  - Balance_1=0.29 (行19的OPERACIÓN)
+  - Balance_2=80.29 (行21的OPERACIÓN)
+  - 计算: 0.29 + 180.0 - 80.29 = 100.0 (不一致)
+- 轮次9 (行21-&gt;24): 区间内交易为行22、23、24。
+  - 行22: ABONOS=16000.0
+  - 行23: ABONOS=591.0
+  - 行24: ABONOS=250.0
+  - Sum(Abonos)=16841.0
+  - Balance_1=80.29 (行21的OPERACIÓN)
+  - Balance_2=4072.06 (行24的OPERACIÓN)
+  - 计算: 80.29 + 16841.0 - 4072.06 = 12849.23 (不一致)
+- 轮次10 (行24-&gt;27): 区间内交易为行25、26、27。
+  - 行25: ABONOS=140.0
+  - 行26: ABONOS=500.0
+  - 行27: ABONOS=770.0
+  - Sum(Abonos)=1410.0
+  - Balance_1=4072.06 (行24的OPERACIÓN)
+  - Balance_2=4202.06 (行27的OPERACIÓN)
+  - 计算: 4072.06 + 1410.0 - 4202.06 = 1280.0 (不一致)
+最终判定：存在校验失败的区间，明细交易金额连续性不一致。</t>
         </is>
       </c>
       <c r="F24" s="5" t="inlineStr">
         <is>
-          <t>在第一个核算区间（索引1到索引10）就发现了金额不一致。计算出的 result 为 -561.0，而非 0。这表明明细交易金额的连续性存在问题，规则被命中。</t>
+          <t>系统内部计算已明确显示多个轮次失败，与手动复核关键区间结果一致。判定为hit=true（不一致）。</t>
         </is>
       </c>
     </row>
@@ -1059,8 +1087,13 @@
       </c>
       <c r="E25" s="5" t="inlineStr">
         <is>
-          <t>执行步骤1：从数据中获取模糊匹配包含'Periodo'的信息。找到内容：'Periodo: DEL 13/04/2025 AL 12/05/2025'。解析得到日期区间为：[DEL 13/04/2025, AL 12/05/2025]。
-执行步骤2：从'Detalle de Movimientos Realizados'中提取所有交易的OPER和LIQ日期。明细共47笔，所有日期如下（格式为日/月缩写）：
+          <t>**步骤执行与证据**
+**Step 1: 获取Periodo信息**
+从数据中提取到Periodo信息为：'DEL 13/04/2025 AL 12/05/2025'。
+解析后得到步骤1的日期区间为：[13/04/2025, 12/05/2025]。
+**Step 2: 计算明细中的最小和最大日期**
+根据指令，取'Detalle de Movimientos Realizados'中所有交易的OPER和LIQ日期。
+明细共47笔交易，其OPER和LIQ日期如下（按原始顺序列出）：
 1. Oper:13/ABR, Liq:14/ABR
 2. Oper:15/ABR, Liq:15/ABR
 3. Oper:16/ABR, Liq:16/ABR
@@ -1073,52 +1106,56 @@
 10. Oper:16/ABR, Liq:15/ABR
 11. Oper:17/ABR, Liq:21/ABR
 12. Oper:18/ABR, Liq:21/ABR
-13. Oper:18/ABR, Liq:21/ABR
-14. Oper:20/ABR, Liq:21/ABR
-15. Oper:21/ABR, Liq:16/ABR
+13. Oper:20/ABR, Liq:21/ABR
+14. Oper:21/ABR, Liq:16/ABR
+15. Oper:21/ABR, Liq:18/ABR
 16. Oper:21/ABR, Liq:18/ABR
-17. Oper:21/ABR, Liq:18/ABR
-18. Oper:22/ABR, Liq:22/ABR
-19. Oper:22/ABR, Liq:21/ABR
+17. Oper:22/ABR, Liq:22/ABR
+18. Oper:22/ABR, Liq:21/ABR
+19. Oper:28/ABR, Liq:28/ABR
 20. Oper:28/ABR, Liq:28/ABR
-21. Oper:28/ABR, Liq:28/ABR
+21. Oper:30/ABR, Liq:30/ABR
 22. Oper:30/ABR, Liq:30/ABR
-23. Oper:30/ABR, Liq:30/ABR
-24. Oper:30/ABR, Liq:02/MAY
+23. Oper:30/ABR, Liq:02/MAY
+24. Oper:01/MAY, Liq:02/MAY
 25. Oper:01/MAY, Liq:02/MAY
 26. Oper:01/MAY, Liq:02/MAY
-27. Oper:01/MAY, Liq:02/MAY
+27. Oper:02/MAY, Liq:02/MAY
 28. Oper:02/MAY, Liq:02/MAY
-29. Oper:02/MAY, Liq:02/MAY
+29. Oper:02/MAY, Liq:01/MAY
 30. Oper:02/MAY, Liq:01/MAY
-31. Oper:02/MAY, Liq:01/MAY
+31. Oper:05/MAY, Liq:05/MAY
 32. Oper:05/MAY, Liq:05/MAY
 33. Oper:05/MAY, Liq:05/MAY
-34. Oper:05/MAY, Liq:05/MAY
+34. Oper:06/MAY, Liq:06/MAY
 35. Oper:06/MAY, Liq:06/MAY
-36. Oper:06/MAY, Liq:06/MAY
+36. Oper:07/MAY, Liq:07/MAY
 37. Oper:07/MAY, Liq:07/MAY
-38. Oper:07/MAY, Liq:07/MAY
+38. Oper:08/MAY, Liq:08/MAY
 39. Oper:08/MAY, Liq:08/MAY
 40. Oper:08/MAY, Liq:08/MAY
-41. Oper:08/MAY, Liq:08/MAY
-42. Oper:08/MAY, Liq:09/MAY
+41. Oper:08/MAY, Liq:09/MAY
+42. Oper:09/MAY, Liq:09/MAY
 43. Oper:09/MAY, Liq:09/MAY
-44. Oper:09/MAY, Liq:09/MAY
+44. Oper:10/MAY, Liq:12/MAY
 45. Oper:10/MAY, Liq:12/MAY
-46. Oper:10/MAY, Liq:12/MAY
-47. Oper:12/MAY, Liq:09/MAY
-计算最小日期（min_date）：从所有OPER和LIQ中找出最早的日期。最早日期为'13/ABR'（对应2025年4月13日）。
-计算最大日期（max_date）：从所有OPER和LIQ中找出最晚的日期。最晚日期为'12/MAY'（对应2025年5月12日）。
-执行校验规则：判断步骤2中的min_date（13/ABR/2025）和max_date（12/MAY/2025）是否在步骤1的日期区间[13/04/2025, 12/05/2025]范围内。
-比较结果：min_date（13/04/2025）等于区间起始日（13/04/2025），在区间内。max_date（12/05/2025）等于区间结束日（12/05/2025），在区间内。
-决策结果：min_date和max_date均在步骤1的日期区间范围内，因此输出“一致（无异常）”。
-判定理由：根据规则，只要min_date和max_date在区间内即判定为一致。当前数据满足此条件，因此hit=false。</t>
+46. Oper:12/MAY, Liq:09/MAY
+从所有日期中找出最小日期（min_date）和最大日期（max_date）：
+- 最小日期（min_date）：OPER日期为13/ABR（即13/04/2025）。
+- 最大日期（max_date）：LIQ日期为12/MAY（即12/05/2025），出现在第44、45笔交易。OPER日期最大也为12/MAY（第46笔）。
+因此，步骤2的结果为：min_date = 13/04/2025，max_date = 12/05/2025。
+**校验规则：步骤2中的min_date和max_date是否在步骤1的日期区间范围内？**
+- 步骤1区间：[13/04/2025, 12/05/2025]
+- 步骤2的min_date（13/04/2025）等于区间起始日，在区间内。
+- 步骤2的max_date（12/05/2025）等于区间结束日，在区间内。
+**决策结果**：由于min_date和max_date均在步骤1的日期区间范围内，因此输出“一致（无异常）”。
+**hit值判定**：根据规则，决策结果为“一致”，故hit=false。
+**关键原则遵守说明**：本规则仅校验日期范围一致性。虽然数据中存在余额连续性检查失败等其他问题，但根据‘严禁跨规则连坐’原则，这些不影响本规则关于日期一致性的判定。</t>
         </is>
       </c>
       <c r="F25" s="5" t="inlineStr">
         <is>
-          <t>规则仅校验日期范围覆盖性，不要求交易完全覆盖整个区间。所有交易的OPER和LIQ日期均在账单周期内，校验通过。</t>
+          <t>规则MSTAR_BBVA_DATE_CHK_CONS的校验逻辑已严格执行。交易明细中的最小操作日期（13/ABR）和最大清算日期（12/MAY）完全落在Periodo声明的区间（DEL 13/04/2025 AL 12/05/2025）内，因此判定为一致。</t>
         </is>
       </c>
     </row>
@@ -1145,16 +1182,36 @@
       </c>
       <c r="E26" s="5" t="inlineStr">
         <is>
-          <t>步骤1执行结果：已从'Detalle de Movimientos Realizados'中提取所有47笔交易的'描述'字段。
-步骤2执行结果：已将描述字段翻译为中文。翻译后的描述主要包含以下内容：SPEI接收/发送、第三方账户支付/存款、商户消费（如CINEMEX、WAL MART、LEFTIES、TUNEL SPORT、DTM）、ATM取款、工资入账、贷款平台（KUESKI、LENDTOP）交易等。
-校验规则执行：将翻译后的描述与高风险职业关键词列表逐一比对。关键词列表包括：现金密集型业务；小型零售商和街头摊贩；夜总会；酒吧；娱乐场所经营者；灰色；非法行业关联者；未注册或非正式的安保服务提供商；涉嫌贷款翻转或文件造假的汽车贷款经纪人或中介；可能与贩毒或有组织犯罪相关的幌子企业；欺诈高发行业；不受监管的汽车经销商或中介；收入不规律或无法核实的自雇人士；在汽车金融行业工作的个人；独立或未注册的汽车维修店员工。
-比对结果：所有47笔交易的描述翻译后，均未包含上述任意关键词。交易描述涉及日常消费、转账、工资、小额贷款等，未发现与高风险职业相关的明确表述。
-决策结果：全部都没命中，输出正常。</t>
+          <t>步骤1：取出Detalle de Movimientos Realizados中所有交易的DESCRIPCION（描述）字段。
+步骤2：将所有DESCRIPCION翻译成中文。
+执行步骤1：从提供的47笔交易中提取所有描述。
+执行步骤2：对每条描述进行中文翻译。翻译结果示例如下：
+1. SPEI RECIBIDOAZTECA 2247230acta 00127180013692821607 250414070826764002I JIMENEZ FERNANDEZ OFELIA ALEJANDRA -&gt; 收到SPEI转账，来自AZTECA银行，付款人JIMENEZ FERNANDEZ OFELIA ALEJANDRA。
+2. SPEI ENVIADO Mercado Pago 0903250tacos 00722969010852750496 MBAN01002504160090839425 Oscar Quiroz -&gt; 发送SPEI转账至Mercado Pago，收款人Oscar Quiroz，备注tacos。
+3. PAGO CUENTA DE TERCERO BNET 1533862302 compra -&gt; 通过BNET向第三方账户付款，备注compra（购买）。
+...（其余翻译略，交易描述主要涉及转账、消费、工资入账、贷款还款等日常活动）
+校验规则：检查所有翻译后的中文描述，是否命中以下任意关键词：
+- 现金密集型业务
+- 小型零售商和街头摊贩（如露天市场摊贩）
+- 夜总会
+- 酒吧
+- 娱乐场所经营者
+- 灰色
+- 非法行业关联者
+- 未注册或非正式的安保服务提供商
+- 涉嫌贷款翻转或文件造假的汽车贷款经纪人或中介
+- 可能与贩毒或有组织犯罪相关的幌子企业（如虚假奢侈品转售店、空壳运输公司）
+- 欺诈高发行业
+- 不受监管的汽车经销商或中介，尤其是推广 “零首付” 优惠的或收入不规律或无法核实的自雇人士
+- 在汽车金融行业工作的个人
+- 独立或未注册的汽车维修店员工
+检查结果：对所有47笔交易的翻译后描述进行逐一核对，未发现任何描述包含上述关键词或其相关含义。交易描述主要为：SPEI转账（发送/接收）、第三方付款（BNET）、商户消费（CINEMEX, WAL MART, MERCADO PAGO, LEFTIES等）、工资入账（PAGO DE NOMINA）、ATM取款、贷款相关交易（KUESKI, LENDTOP）等。这些描述均指向正常的个人消费、转账、工资和金融服务，未涉及高风险职业或非法行业。
+决策结果：所有描述均未命中关键词，输出正常。</t>
         </is>
       </c>
       <c r="F26" s="5" t="inlineStr">
         <is>
-          <t>根据规则定义的逻辑，对交易描述进行翻译和关键词匹配，未发现任何命中项。因此判定为正常（hit=false）。</t>
+          <t>审计规则MSTAR_BBVA_DTL_ANAL_RISK_OCC旨在识别与高风险职业相关的交易描述。经严格按步骤提取、翻译并核对所有47笔交易的描述，未发现任何与规则定义的关键词匹配的内容。因此判定为未命中（hit=false）。</t>
         </is>
       </c>
     </row>
@@ -1183,45 +1240,53 @@
         <is>
           <t>规则ID: MSTAR_BBVA_DTL_ANAL_FAST_IO
 规则名称: 交易明细分析_快进快出
-执行步骤：
-步骤1：已取Detalle de Movimientos Realizados中所有47条记录，并按OPER日期升序排序（数据已按此顺序提供）。
-步骤2：统计所有记录中ABONOS取值不为空的总记录数。根据数据中提供的参考值‘有效 Abonos (入账) 交易数: 21’，确认 total_cargo_cnt = 21。
-步骤3-6：从第一条记录开始，逐一查找ABONOS不为空的行作为起始行，并寻找其下游最近的CARGOS值与ABONOS值相同的记录，计算OPER日期间隔天数（result）。
-具体轮次分析（总ABONOS交易21笔，需分析21轮）：
-1. 起始行1 (13/ABR, Abono:1000.0)：向下查找Cargos=1000.0的记录，未找到。result = N/A（无匹配出账）。
-2. 起始行6 (16/ABR, Abono:385.0)：向下查找Cargos=385.0的记录，未找到。result = N/A。
-3. 起始行7 (16/ABR, Abono:174.0)：向下查找Cargos=174.0的记录，未找到。result = N/A。
-4. 起始行8 (16/ABR, Abono:2.0)：向下查找Cargos=2.0的记录，未找到。result = N/A。
-5. 起始行13 (18/ABR, Abono:500.0)：向下查找Cargos=500.0的记录，找到第26行 (01/MAY, Cargo:500.0)。OPER1=18/ABR, OPER2=01/MAY。间隔天数：18/ABR到01/MAY超过13天（ABR有30天，从18到30是12天，加上1天到01/MAY，共13天）。result = 13。
-6. 起始行14 (20/ABR, Abono:300.0)：向下查找Cargos=300.0的记录，找到第29行 (02/MAY, Cargo:300.0)。OPER1=20/ABR, OPER2=02/MAY。间隔天数：20/ABR到02/MAY超过12天。result = 12。
-7. 起始行20 (28/ABR, Abono:130.0)：向下查找Cargos=130.0的记录，未找到。result = N/A。
-8. 起始行21 (28/ABR, Abono:50.0)：向下查找Cargos=50.0的记录，找到第4行 (16/ABR, Cargo:50.0)。但此记录在起始行之前（按OPER日期排序，16/ABR早于28/ABR），规则要求‘从起始行开始往下逐行查找’，因此不匹配。继续向下查找，未找到其他Cargos=50.0的记录。result = N/A。
-9. 起始行22 (30/ABR, Abono:16000.0)：向下查找Cargos=16000.0的记录，未找到。result = N/A。
-10. 起始行23 (30/ABR, Abono:591.0)：向下查找Cargos=591.0的记录，未找到。result = N/A。
-11. 起始行24 (30/ABR, Abono:250.0)：向下查找Cargos=250.0的记录，未找到。result = N/A。
-12. 起始行25 (01/MAY, Abono:140.0)：向下查找Cargos=140.0的记录，未找到。result = N/A。
-13. 起始行26 (01/MAY, Abono:500.0)：向下查找Cargos=500.0的记录，找到第45行 (10/MAY, Cargo:500.0)。OPER1=01/MAY, OPER2=10/MAY。间隔天数：9天。result = 9。
-14. 起始行27 (01/MAY, Abono:770.0)：向下查找Cargos=770.0的记录，未找到。result = N/A。
-15. 起始行34 (05/MAY, Abono:300.0)：向下查找Cargos=300.0的记录，未找到。result = N/A。
-16. 起始行36 (06/MAY, Abono:325.0)：向下查找Cargos=325.0的记录，未找到。result = N/A。
-17. 起始行37 (07/MAY, Abono:400.0)：向下查找Cargos=400.0的记录，未找到。result = N/A。
-18. 起始行40 (08/MAY, Abono:0.01)：向下查找Cargos=0.01的记录，未找到。result = N/A。
-19. 起始行41 (08/MAY, Abono:600.0)：向下查找Cargos=600.0的记录，找到第42行 (08/MAY, Cargo:600.0)。OPER1=08/MAY, OPER2=08/MAY。间隔天数：0天。result = 0。
-20. 起始行43 (09/MAY, Abono:1500.0)：向下查找Cargos=1500.0的记录，未找到。result = N/A。
-21. 起始行44 (09/MAY, Abono:500.0)：向下查找Cargos=500.0的记录，未找到。result = N/A。
-校验规则执行：
-1. 记录每个轮次的result值，判断是否小于等于1。只有第19轮（起始行41）的result=0满足条件。因此，result_total = 1。
-2. 计算ratio = result_total / total_cargo_cnt = 1 / 21 ≈ 0.0476。
-决策结果：
-规则要求：如果ratio &gt; 0.8，输出“命中快进快出（异常）”；如果ratio &lt;= 0.8，输出“未命中快进快出（无异常）”。
-计算得ratio ≈ 0.0476，小于等于0.8。
-结论：未命中快进快出（无异常）。
-因此，hit值判定为false。</t>
+**执行步骤与结果**：
+1. 步骤1：已取Detalle de Movimientos Realizados中所有47条记录，并按OPER日期升序排序（数据已按此顺序提供）。
+2. 步骤2：统计所有记录中ABONOS取值不为空的总记录数。根据数据中提供的参考值：'其中包含有效 Abonos (入账) 的交易数: 21'，因此 total_cargo_cnt = 21。
+3. 步骤3-6：从第一条记录开始，逐一查找ABONOS不为空的行作为起始行，并寻找其最近的下游CARGOS值与之相同的记录，计算日期间隔。
+   - 起始行1 (OPER1: 13/ABR, ABONOS1: 1000.0)：向下查找CARGOS=1000.0的记录。未找到。本轮无匹配，result不计数。
+   - 起始行6 (OPER1: 16/ABR, ABONOS1: 385.0)：向下查找CARGOS=385.0的记录。未找到。本轮无匹配。
+   - 起始行7 (OPER1: 16/ABR, ABONOS1: 174.0)：向下查找CARGOS=174.0的记录。未找到。本轮无匹配。
+   - 起始行8 (OPER1: 16/ABR, ABONOS1: 2.0)：向下查找CARGOS=2.0的记录。未找到。本轮无匹配。
+   - 起始行13 (OPER1: 18/ABR, ABONOS1: 500.0)：向下查找CARGOS=500.0的记录。找到第26行 (OPER: 01/MAY, CARGOS: 500.0)。OPER2为01/MAY。计算间隔天数：从18/ABR到01/MAY，间隔大于1天。result&gt;1，不计入result_total。
+   - 起始行14 (OPER1: 20/ABR, ABONOS1: 300.0)：向下查找CARGOS=300.0的记录。找到第29行 (OPER: 02/MAY, CARGOS: 300.0)。OPER2为02/MAY。间隔大于1天。不计入。
+   - 起始行20 (OPER1: 28/ABR, ABONOS1: 130.0)：向下查找CARGOS=130.0的记录。未找到。本轮无匹配。
+   - 起始行21 (OPER1: 28/ABR, ABONOS1: 50.0)：向下查找CARGOS=50.0的记录。找到第4行 (OPER: 16/ABR, CARGOS: 50.0)。但此记录在起始行之前（按OPER日期排序），规则要求“往下逐行查找”，即只查找起始行之后的记录。因此，对于起始行21，在其之后未找到CARGOS=50.0的记录。本轮无匹配。
+   - 起始行22 (OPER1: 30/ABR, ABONOS1: 16000.0)：向下查找CARGOS=16000.0的记录。未找到。本轮无匹配。
+   - 起始行23 (OPER1: 30/ABR, ABONOS1: 591.0)：向下查找CARGOS=591.0的记录。未找到。本轮无匹配。
+   - 起始行24 (OPER1: 30/ABR, ABONOS1: 250.0)：向下查找CARGOS=250.0的记录。未找到。本轮无匹配。
+   - 起始行25 (OPER1: 01/MAY, ABONOS1: 140.0)：向下查找CARGOS=140.0的记录。未找到。本轮无匹配。
+   - 起始行26 (OPER1: 01/MAY, ABONOS1: 500.0)：向下查找CARGOS=500.0的记录。未找到。本轮无匹配。
+   - 起始行27 (OPER1: 01/MAY, ABONOS1: 770.0)：向下查找CARGOS=770.0的记录。未找到。本轮无匹配。
+   - 起始行34 (OPER1: 05/MAY, ABONOS1: 300.0)：向下查找CARGOS=300.0的记录。未找到。本轮无匹配。
+   - 起始行36 (OPER1: 06/MAY, ABONOS1: 325.0)：向下查找CARGOS=325.0的记录。未找到。本轮无匹配。
+   - 起始行37 (OPER1: 07/MAY, ABONOS1: 400.0)：向下查找CARGOS=400.0的记录。未找到。本轮无匹配。
+   - 起始行40 (OPER1: 08/MAY, ABONOS1: 0.01)：向下查找CARGOS=0.01的记录。未找到。本轮无匹配。
+   - 起始行41 (OPER1: 08/MAY, ABONOS1: 600.0)：向下查找CARGOS=600.0的记录。找到第42行 (OPER: 08/MAY, CARGOS: 600.0)。OPER2为08/MAY。OPER1和OPER2均为08/ABR，间隔天数为0。result&lt;=1，因此result_total计数加1。
+   - 起始行43 (OPER1: 09/MAY, ABONOS1: 1500.0)：向下查找CARGOS=1500.0的记录。未找到。本轮无匹配。
+   - 起始行44 (OPER1: 09/MAY, ABONOS1: 500.0)：向下查找CARGOS=500.0的记录。找到第45行 (OPER: 10/MAY, CARGOS: 500.0)。OPER2为10/MAY。从09/MAY到10/MAY，间隔1天。result&lt;=1，因此result_total计数加1。
+4. 校验规则1：统计result_total。根据以上分析，满足条件（result&lt;=1）的轮次有2轮（对应起始行41和起始行44）。因此 result_total = 2。
+5. 校验规则2：计算 ratio = result_total / total_cargo_cnt = 2 / 21 ≈ 0.0952。
+6. 决策结果：ratio (0.0952) &lt;= 0.8，因此输出“未命中快进快出（无异常）”。
+**关键发现与判定**：
+- 总有效Abonos交易数 (total_cargo_cnt): 21。
+- 满足“快进快出”（入账后1天内出现等额出账）条件的交易对数 (result_total): 2。
+- 比例 (ratio): 2 / 21 ≈ 0.0952。
+- 根据决策规则，ratio &lt;= 0.8 应判定为“未命中快进快出（无异常）”。
+- 因此，hit = false。
+**用于计算的具体交易明细（因总笔数21笔，少于30笔，故列出所有匹配对）**：
+1. 匹配对1：
+   - 起始行41：OPER日期 08/MAY，ABONOS值 600.0。
+   - 匹配行42：OPER日期 08/MAY，CARGOS值 600.0。间隔天数 0。
+2. 匹配对2：
+   - 起始行44：OPER日期 09/MAY，ABONOS值 500.0。
+   - 匹配行45：OPER日期 10/MAY，CARGOS值 500.0。间隔天数 1。
+其他17笔有效Abonos交易未在其后找到等额的Cargos交易，或找到但间隔超过1天。</t>
         </is>
       </c>
       <c r="F27" s="5" t="inlineStr">
         <is>
-          <t>分析严格遵循规则定义的逻辑。在21笔入账（Abonos）交易中，仅发现1笔（金额600.0）在当天有相同金额的出账（Cargos），间隔天数为0。快进快出比例（1/21）远低于阈值0.8，因此判定为无异常。</t>
+          <t>严格按照规则定义的逻辑执行。计算基于提供的21笔有效Abonos交易。发现2对满足快进快出条件的交易，比例较低，未触发规则警报。；已根据 evidence 结尾的明确结论自动修正 hit 值为 False</t>
         </is>
       </c>
     </row>
@@ -1248,22 +1313,27 @@
       </c>
       <c r="E28" s="5" t="inlineStr">
         <is>
-          <t>步骤1（判断逻辑）：获取解析后Detalle de Movimientos Realizados部分的description对应的所有的值。
-执行结果：已从提供的47笔交易明细中提取所有'描述'字段的值。
-步骤2（校验规则）：判断DESCRIPCION对应的所有的值是否包含以下任意关键词：Apuesta，médico / médic，juego。
-执行结果：对47条描述文本逐一进行关键词匹配检查。
-- 关键词 'Apuesta'：未在任何描述中发现。
-- 关键词 'médico' 或 'médic'：未在任何描述中发现。
-- 关键词 'juego'：未在任何描述中发现。
-所有描述均未命中指定的三个关键词。
-步骤3（决策结果）：命中任意一个，输出异常；全部都没命中，输出正常。
-执行结果：由于所有描述均未命中任意一个关键词，因此输出“正常”。
-结论：根据规则MSTAR_BBVA_DTL_ANAL_ABN_REM的校验逻辑，未发现包含异常关键词（Apuesta, médico/médic, juego）的交易备注。因此，规则未命中，判定为合规。</t>
+          <t>规则ID: MSTAR_BBVA_DTL_ANAL_ABN_REM
+规则名称: 交易明细分析_异常备注
+**执行步骤与结果**：
+1.  **步骤1：获取所有描述值**：已从‘Detalle de Movimientos Realizados’部分提取所有47笔交易的‘描述’字段值。
+2.  **校验规则：检查关键词**：逐一检查所有描述文本是否包含以下任意关键词：'Apuesta'，'médico / médic'，'juego'。
+3.  **检查结果**：
+    - 关键词 'Apuesta'：在所有描述中未找到。
+    - 关键词 'médico / médic'：在所有描述中未找到。
+    - 关键词 'juego'：在所有描述中未找到。
+4.  **决策结果**：所有关键词均未命中。
+**结论**：根据规则定义，所有描述均不包含指定的异常关键词（Apuesta，médico / médic，juego），因此判定为正常，规则未命中。
+**关键交易示例（前3笔）**：
+1. 描述: SPEI RECIBIDOAZTECA 2247230acta 00127180013692821607 250414070826764002I JIMENEZ FERNANDEZ OFELIA ALEJANDRA
+2. 描述: SPEI ENVIADO Mercado Pago 0903250tacos 00722969010852750496 MBAN01002504160090839425 Oscar Quiroz
+3. 描述: PAGO CUENTA DE TERCERO BNET 1533862302 compra
+...（共47笔，均无异常关键词）</t>
         </is>
       </c>
       <c r="F28" s="5" t="inlineStr">
         <is>
-          <t>已严格按照判断逻辑、校验规则和决策结果执行。检查了所有47笔交易的描述字段，未发现任何指定关键词。</t>
+          <t>已严格按照规则定义的判断逻辑、校验规则和决策结果执行。</t>
         </is>
       </c>
     </row>
@@ -1293,41 +1363,38 @@
           <t>规则ID: MSTAR_BBVA_TIME_CHK_SPECIAL
 规则名称: 交易时间校验_特殊时间段交易
 执行步骤：
-步骤1：遍历Detalle de Movimientos Realizados的47条记录，从description字段提取时间。
-- 第1-8条、11-15条、18条、20-29条、32-41条、43-46条记录的description中不包含时间信息，跳过。
-- 第9条描述：'CINEMEX TECAMAC RFC: OCI 970818KX9 13:02 AUT: 068400'，提取时间：13:02。
-- 第10条描述：'ENTRET TOP JUMP RFC: TJO 181220RX8 16:55 AUT: 634367'，提取时间：16:55。
-- 第16条描述：'CINEMEX TECAMAC RFC: OCI 970818KX9 12:52 AUT: 223109'，提取时间：12:52。
-- 第17条描述：'WAL MART MACRO PZA H CASH RFC: NWM 9709244W4 15:55 AUT: 262419'，提取时间：15:55。
-- 第19条描述：'MI ATT A APP PS RFC: CNM 980114PI2 09:47 AUT: 762695'，提取时间：09:47。
-- 第26条描述：'RETIRO CAJERO AUTOMATICO MAY01 15:39 BBVA 8144 FOLIO:6589'，提取时间：15:39。
-- 第30条描述：'10294 LEFTIES COSMOPOL RFC: BME 0004112J6 16:41 AUT: 267529'，提取时间：16:41。
-- 第31条描述：'TUNEL SPORT COSMOPOL RFC: TSP 1204177H5 17:02 AUT: 666756'，提取时间：17:02。
-- 第42条描述：'RETIRO CAJERO AUTOMATICO MAY08 22:34 BBVA B023 FOLIO:1009'，提取时间：22:34。
-- 第47条描述：'DTM TEPOTZOTLAN RFC: DTM 220801HV9 08:26 AUT: 671294'，提取时间：08:26。
-步骤2：将提取到的时间放入集合：{'13:02', '16:55', '12:52', '15:55', '09:47', '15:39', '16:41', '17:02', '22:34', '08:26'}。
-步骤3：统计集合中处于2点至5点（包括2点和5点，24小时制）的交易笔数。
-- 检查每个时间：
-  '13:02' -&gt; 不在2:00-5:00区间。
-  '16:55' -&gt; 不在2:00-5:00区间。
-  '12:52' -&gt; 不在2:00-5:00区间。
-  '15:55' -&gt; 不在2:00-5:00区间。
-  '09:47' -&gt; 不在2:00-5:00区间。
-  '15:39' -&gt; 不在2:00-5:00区间。
-  '16:41' -&gt; 不在2:00-5:00区间。
-  '17:02' -&gt; 不在2:00-5:00区间。
-  '22:34' -&gt; 不在2:00-5:00区间。
-  '08:26' -&gt; 不在2:00-5:00区间。
-- 统计结果：count = 0。
-校验规则：count是否大于10。
-决策结果：count=0，小于等于10，输出“正常”。
-结论：在2点至5点（含）的特殊时间段内，未发现任何交易。交易时间正常。
-判定：hit=false（规则未命中）。</t>
+1. 遍历Detalle de Movimientos Realizados的47条记录，从描述(description)字段中提取时间。
+2. 提取结果：
+   - 第9条: CINEMEX TECAMAC ... 13:02 -&gt; 提取时间: 13:02
+   - 第10条: ENTRET TOP JUMP ... 16:55 -&gt; 提取时间: 16:55
+   - 第15条: MERCADO PAGO ... 20:12 -&gt; 提取时间: 20:12
+   - 第16条: CINEMEX TECAMAC ... 12:52 -&gt; 提取时间: 12:52
+   - 第17条: WAL MART MACRO PZA H CASH ... 15:55 -&gt; 提取时间: 15:55
+   - 第19条: MI ATT A APP PS ... 09:47 -&gt; 提取时间: 09:47
+   - 第26条: RETIRO CAJERO AUTOMATICO MAY01 15:39 BBVA ... -&gt; 提取时间: 15:39
+   - 第30条: 10294 LEFTIES COSMOPOL ... 16:41 -&gt; 提取时间: 16:41
+   - 第31条: TUNEL SPORT COSMOPOL ... 17:02 -&gt; 提取时间: 17:02
+   - 第42条: RETIRO CAJERO AUTOMATICO MAY08 22:34 BBVA ... -&gt; 提取时间: 22:34
+   - 第47条: DTM TEPOTZOTLAN ... 08:26 -&gt; 提取时间: 08:26
+   - 其余35条记录的描述中不包含时间信息，已按规则跳过。
+3. 将提取到的时间放入集合，共获得11个不同的时间点。
+4. 统计处于2点至5点（含2点和5点）的交易笔数(count)。
+   - 检查每个时间：13:02, 16:55, 20:12, 12:52, 15:55, 09:47, 15:39, 16:41, 17:02, 22:34, 08:26。
+   - 所有时间均不在02:00至05:00区间内。
+   - 因此，count = 0。
+校验规则：
+判断 count 是否大于 10。
+决策结果：
+count = 0，满足 count &lt;= 10，因此输出“正常”。
+结论：
+未发现凌晨2点至5点的交易。交易时间正常。
+hit值判定：
+根据决策结果“正常”，规则未命中，hit=false。</t>
         </is>
       </c>
       <c r="F29" s="5" t="inlineStr">
         <is>
-          <t>严格按照规则步骤执行，从描述中提取了所有包含时间信息的交易，并检查了每个时间是否在2:00-5:00区间内。所有提取到的时间均不在该区间，因此count为0，符合规则要求（count&lt;=10）。</t>
+          <t>所有包含时间的交易描述均已检查，无凌晨2-5点的交易。</t>
         </is>
       </c>
     </row>
